--- a/medicine/Mort/Vanité_(de_Champaigne)/Vanité_(de_Champaigne).xlsx
+++ b/medicine/Mort/Vanité_(de_Champaigne)/Vanité_(de_Champaigne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vanit%C3%A9_(de_Champaigne)</t>
+          <t>Vanité_(de_Champaigne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanité – ou Allégorie de la vie humaine – est un tableau du milieu du XVIIe siècle attribué au peintre français Philippe de Champaigne. Cette huile sur panneau de chêne est une  posé sur une tablette en pierre calcaire, devant un fond noir, entre un soliflore transparent contenant une tulipe et un sablier tout juste retourné. L'œuvre est conservée au musée de Tessé, au Mans, depuis son acquisition en vente publique en 1884.
 </t>
